--- a/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
@@ -23,6 +23,239 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cross or Tray #</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Priority of Female: H/M/L/P</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, units can be set to (kg) or (g).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, units can be set to (cm) or (mm).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Priority of male: H/M/L/P</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, units can be set to (kg) or (g).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, units can be set to (cm) or (mm).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Order in which male was used in pairing, eg. 1/2/3
+If Dud, set Exp. # column to 0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Estimated Fecundity of pairing. Set to 0 to indicate duds.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Priority of overall paring</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Comments relevent to pairing. Optional</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
@@ -96,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +354,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -179,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -205,6 +451,7 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,11 +731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,13 +767,13 @@
       <c r="H2" s="6"/>
       <c r="I2" s="8"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6" t="s">
         <v>18</v>
@@ -567,17 +814,17 @@
       <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>19</v>
@@ -595,12 +842,6 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-    </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -652,5 +893,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
@@ -145,6 +145,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="J3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Release / Keep
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K3" authorId="1" shapeId="0">
       <text>
         <r>
@@ -154,11 +168,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Tank fish is placed in after spawning
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Priority of male: H/M/L/P</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +225,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Release / Keep</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tank fish is placed in after spawning
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="T3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="U3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
+    <comment ref="V3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -320,6 +375,18 @@
   </si>
   <si>
     <t>Pri. F</t>
+  </si>
+  <si>
+    <t>Status, F</t>
+  </si>
+  <si>
+    <t>End Tank, F</t>
+  </si>
+  <si>
+    <t>Status, M</t>
+  </si>
+  <si>
+    <t>End Tank, M</t>
   </si>
 </sst>
 </file>
@@ -425,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -451,7 +518,6 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
+  <dimension ref="A2:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +820,7 @@
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -765,22 +831,26 @@
         <v>10</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="8"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="8"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,88 +875,100 @@
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="11"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I14" s="14"/>
       <c r="J14" s="12"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I15" s="14"/>
       <c r="J15" s="12"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J16" s="11"/>
       <c r="K16" s="16"/>
     </row>

--- a/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
@@ -303,6 +303,19 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Program group of pairing, optional, must match code in database.  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Comments relevent to pairing. Optional</t>
         </r>
       </text>
@@ -312,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -387,6 +400,9 @@
   </si>
   <si>
     <t>End Tank, M</t>
+  </si>
+  <si>
+    <t>Program</t>
   </si>
 </sst>
 </file>
@@ -798,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V16"/>
+  <dimension ref="A2:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:V3"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +836,7 @@
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -849,8 +865,9 @@
         <v>18</v>
       </c>
       <c r="V2" s="6"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,60 +932,63 @@
         <v>5</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J13" s="11"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I14" s="14"/>
       <c r="J14" s="12"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I15" s="14"/>
       <c r="J15" s="12"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J16" s="11"/>
       <c r="K16" s="16"/>
     </row>

--- a/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
@@ -91,11 +91,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Optional, must match exisiting sample number.
+PIT tag field must be blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Priority of Female: H/M/L/P</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1" shapeId="0">
+    <comment ref="H3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="1" shapeId="0">
+    <comment ref="I3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
+    <comment ref="J3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0">
+    <comment ref="K3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0">
+    <comment ref="L3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +187,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, must match exisiting sample number.
+PIT tag field must be blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="R3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
+    <comment ref="T3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="U3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1" shapeId="0">
+    <comment ref="V3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="1" shapeId="0">
+    <comment ref="W3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="1" shapeId="0">
+    <comment ref="X3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="1" shapeId="0">
+    <comment ref="Y3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Year</t>
   </si>
@@ -403,6 +431,12 @@
   </si>
   <si>
     <t>Program</t>
+  </si>
+  <si>
+    <t>Sample UFID, F</t>
+  </si>
+  <si>
+    <t>Sample UFID, M</t>
   </si>
 </sst>
 </file>
@@ -814,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W16"/>
+  <dimension ref="A2:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,48 +860,51 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="8"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,114 +920,120 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H4" s="10"/>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H6" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H7" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H8" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H9" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H10" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="J13" s="11"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="J16" s="11"/>
-      <c r="K16" s="16"/>
+      <c r="J10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K13" s="11"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J14" s="14"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J15" s="14"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K16" s="11"/>
+      <c r="L16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
@@ -168,26 +168,52 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Optional, Y/N.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, Y/N.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Release / Keep
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tank fish is placed in after spawning
+    <comment ref="N3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Optional. Tank fish is placed in after spawning
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="R3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
+    <comment ref="T3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +279,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="U3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, Y/N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional Y/N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,21 +319,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tank fish is placed in after spawning
+    <comment ref="X3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Optional. Tank fish is placed in after spawning
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="1" shapeId="0">
+    <comment ref="Y3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="1" shapeId="0">
+    <comment ref="Z3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="1" shapeId="0">
+    <comment ref="AA3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="1" shapeId="0">
+    <comment ref="AB3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="1" shapeId="0">
+    <comment ref="AC3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -353,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Year</t>
   </si>
@@ -437,6 +490,18 @@
   </si>
   <si>
     <t>Sample UFID, M</t>
+  </si>
+  <si>
+    <t>Ovarian Fluid Taken?</t>
+  </si>
+  <si>
+    <t>Ovarian Fluid Used</t>
+  </si>
+  <si>
+    <t>Cryo Milt Taken</t>
+  </si>
+  <si>
+    <t>Cryo Milt Used</t>
   </si>
 </sst>
 </file>
@@ -446,7 +511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +546,13 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -848,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y16"/>
+  <dimension ref="A2:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,14 +936,18 @@
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -885,26 +961,30 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="8"/>
+      <c r="U2" s="6"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,105 +1015,133 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K13" s="11"/>
-      <c r="L13" s="13"/>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M13" s="11"/>
+      <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="J14" s="14"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="15"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="J15" s="14"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K16" s="11"/>
-      <c r="L16" s="16"/>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M16" s="11"/>
+      <c r="N16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-spawning.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40DB8FE-EAED-4324-A4A1-88115D78960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="7170"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -23,390 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. 1999</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. Jan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cross or Tray #</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, must match exisiting sample number.
-PIT tag field must be blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Priority of Female: H/M/L/P</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be set to (kg) or (g).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be set to (cm) or (mm).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, Y/N.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, Y/N.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Release / Keep
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Optional. Tank fish is placed in after spawning
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, must match exisiting sample number.
-PIT tag field must be blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Priority of male: H/M/L/P</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be set to (kg) or (g).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be set to (cm) or (mm).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, Y/N</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <u/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional Y/N</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Release / Keep</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Optional. Tank fish is placed in after spawning
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Order in which male was used in pairing, eg. 1/2/3
-If Dud, set Exp. # column to 0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Estimated Fecundity of pairing. Set to 0 to indicate duds.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Priority of overall paring</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Program group of pairing, optional, must match code in database.  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Comments relevent to pairing. Optional</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -502,16 +121,73 @@
   </si>
   <si>
     <t>Cryo Milt Used</t>
+  </si>
+  <si>
+    <t>eg. 1999</t>
+  </si>
+  <si>
+    <t>eg, Apr, Sep</t>
+  </si>
+  <si>
+    <t>eg. 1</t>
+  </si>
+  <si>
+    <t>Cross or Tray number.</t>
+  </si>
+  <si>
+    <t>Female Pit tag. Must match fish in database.</t>
+  </si>
+  <si>
+    <t>Optional, must match exisiting sample number. PIT tag field must be blank.</t>
+  </si>
+  <si>
+    <t>Priority of Female: H/M/L/P</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Units can be set in header to (cm) or (mm), optional</t>
+  </si>
+  <si>
+    <t>Units can be set in header to (g) or (kg), optional</t>
+  </si>
+  <si>
+    <t>Optional. Y/N</t>
+  </si>
+  <si>
+    <t>Release / Keep</t>
+  </si>
+  <si>
+    <t>Container fish were placed in.</t>
+  </si>
+  <si>
+    <t>Male Pit tag. Must match fish in database.</t>
+  </si>
+  <si>
+    <t>Priority of male: H/M/L/P</t>
+  </si>
+  <si>
+    <t>Order in which male was used in pairing, eg. 1/2/3. If Dud, set Exp. # column to 0</t>
+  </si>
+  <si>
+    <t>Estimated Fecundity of pairing. Set to 0 to indicate duds.</t>
+  </si>
+  <si>
+    <t>Priority of overall pairing</t>
+  </si>
+  <si>
+    <t>Program group of pairing, optional, must match code in database.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,22 +215,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -573,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -610,11 +272,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -640,6 +330,12 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,147 +635,241 @@
     <col min="11" max="12" width="20.85546875" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" customWidth="1"/>
     <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" customWidth="1"/>
+    <col min="26" max="26" width="13" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-    </row>
-    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+    <row r="3" spans="1:29" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I6" s="10"/>
@@ -1113,39 +903,30 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M12" s="11"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M13" s="11"/>
-      <c r="N13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="15"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M16" s="11"/>
-      <c r="N16" s="16"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>